--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\adv_num\hw_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\adv_num\hw_3\hw3\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35EF866-1E76-4C66-9FDB-5F175DDAC3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF9AF1-5A03-4B3E-A4CE-629FEE6CC2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>composition</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Zc</t>
+  </si>
+  <si>
+    <t>cp_0</t>
+  </si>
+  <si>
+    <t>cp_1</t>
+  </si>
+  <si>
+    <t>cp_2</t>
+  </si>
+  <si>
+    <t>cp_3</t>
   </si>
 </sst>
 </file>
@@ -159,18 +171,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +471,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,564 +500,863 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6.9005015303719996E-2</v>
       </c>
       <c r="C2">
         <v>21.1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>618.048</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2">
         <v>0.48766999999999999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>0.61519999999999997</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>0.25309821613107303</v>
+      </c>
+      <c r="H2" s="3">
+        <v>510915.2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-2463.5709999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7.9568500000000002</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-7.0593640000000003E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.8958516127686397E-2</v>
       </c>
       <c r="C3">
         <v>19.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>638.81399999999996</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>0.54115000000000002</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>0.68030000000000002</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>0.25515574986027806</v>
+      </c>
+      <c r="H3" s="3">
+        <v>621716.80000000005</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-3342.8209999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10.72092</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-1.018517E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3.8044501018579403E-2</v>
       </c>
       <c r="C4">
         <v>18.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>658.24699999999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0.57032000000000005</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0.74809999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>0.24673908640846642</v>
+      </c>
+      <c r="H4" s="3">
+        <v>444932.2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1349.8030000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.7416210000000003</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-3.8048460000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.63183415301881E-2</v>
       </c>
       <c r="C5">
         <v>16.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>675.67</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>0.60058</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>0.9103</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>0.27304849760064426</v>
+      </c>
+      <c r="H5" s="4">
+        <v>745950.3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-3898.7860000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12.067869999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-1.104452E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.8548352107400599E-2</v>
       </c>
       <c r="C6">
         <v>15.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>692.48</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>0.64115</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>0.86980000000000002</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>0.23386924022326991</v>
+      </c>
+      <c r="H6" s="3">
+        <v>738234</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-3274.194</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.7156970000000005</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-7.9432019999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2.4605545331250901E-2</v>
       </c>
       <c r="C7">
         <v>14.8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>706.88</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>0.68986000000000003</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>0.93700000000000006</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>0.23357238816689399</v>
+      </c>
+      <c r="H7" s="4">
+        <v>472478</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-892.31880000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.634134</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-2.6681919999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7.4726824201209199E-2</v>
       </c>
       <c r="C8">
         <v>21.2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>601.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>0.54727000000000003</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>0.61409999999999998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>0.25771143441081179</v>
+      </c>
+      <c r="H8" s="4">
+        <v>319959.8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-790.09299999999996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.4424350000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-3.0252E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.5104409744263805E-2</v>
       </c>
       <c r="C9">
         <v>19.82</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>630.9</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>0.52176999999999996</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>0.67469999999999997</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>0.25237083557390955</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="H9" s="4">
+        <v>439922.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-1858.6559999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6.7641</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-6.2786059999999999E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5.6588805535173398E-2</v>
       </c>
       <c r="C10">
         <v>18.420000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>651.1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>0.57816999999999996</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.74319999999999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>0.25261888182641784</v>
+      </c>
+      <c r="H10" s="4">
+        <v>328307.8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-522.78440000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.9058320000000002</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-2.464286E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4.1950376600132101E-2</v>
       </c>
       <c r="C11">
         <v>17.170000000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>664</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>0.65919000000000005</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>0.81210000000000004</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>0.24757998194365144</v>
+      </c>
+      <c r="H11" s="4">
+        <v>346017.7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-433.524</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.756195</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-2.3243920000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3.9476802494069298E-2</v>
       </c>
       <c r="C12">
         <v>16.04</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>681</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>0.70814999999999995</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>0.88519999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>0.25281002586794321</v>
+      </c>
+      <c r="H12" s="4">
+        <v>369094.2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-419.4126</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.809151</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-2.3495790000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3.3037352142583E-2</v>
       </c>
       <c r="C13">
         <v>14.42</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>709.9</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>0.61029</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.2294159751652147</v>
+      </c>
+      <c r="H13" s="4">
+        <v>305880.59999999998</v>
+      </c>
+      <c r="I13" s="4">
+        <v>24.336079999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.998308</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-1.763382E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.10068820308814699</v>
       </c>
       <c r="C14">
         <v>28.87</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>660.48099999999999</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>0.39246999999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>0.49769999999999998</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>0.26157342470551792</v>
+      </c>
+      <c r="H14" s="4">
+        <v>233522</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-581.77350000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.6609750000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-2.194194E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2.85565589238287E-2</v>
       </c>
       <c r="C15">
         <v>26.04</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>675</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>0.44552000000000003</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>0.5978</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>0.27440244478300768</v>
+      </c>
+      <c r="H15" s="4">
+        <v>282734.8</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-703.48170000000005</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.915648</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-2.410929E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4.1038680645433798E-2</v>
       </c>
       <c r="C16">
         <v>23.8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>695</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>0.49368000000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>0.62029999999999996</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>0.25388561895251655</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="4">
+        <v>383932.6</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-1551.2550000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5.5370160000000004</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-4.8019890000000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>7.6655413709937996E-3</v>
       </c>
       <c r="C17">
         <v>21.8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>708</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>0.52836000000000005</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>0.67930000000000001</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>0.24638610729434665</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="4">
+        <v>246801</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-213.7638</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.1129120000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <v>-1.8444379999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5.1329673362968103E-3</v>
       </c>
       <c r="C18">
         <v>20.2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>725</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>0.58536999999999995</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>0.74629999999999996</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>0.2449016449196619</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="4">
+        <v>316938</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-412.21899999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.4806979999999998</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-2.0212089999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>3.0277403192764001E-3</v>
       </c>
       <c r="C19">
         <v>18.95</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>720</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>0.77710000000000001</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>0.253726144655601</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="4">
+        <v>387527.9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-566.36270000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2.8279719999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-2.2525459999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.101338541144482</v>
       </c>
       <c r="C20">
         <v>24.5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>647</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>0.40226000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>0.5585</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>0.26371971226723584</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="4">
+        <v>217720.9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-222.95519999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.887778</v>
+      </c>
+      <c r="K20" s="4">
+        <v>-1.605511E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>6.2789161700475493E-2</v>
       </c>
       <c r="C21">
         <v>22.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>671</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>0.46010000000000001</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>0.62270000000000003</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>0.26130501153137276</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="4">
+        <v>246991.4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-212.92699999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1.922277</v>
+      </c>
+      <c r="K21" s="4">
+        <v>-1.6096319999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>4.1402153121265897E-2</v>
       </c>
       <c r="C22">
         <v>20.100000000000001</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>686</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>0.50278</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>0.68340000000000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>0.2572603659148115</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="4">
+        <v>300219.8</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-412.09899999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.4853390000000002</v>
+      </c>
+      <c r="K22" s="4">
+        <v>-2.0431830000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>3.6342220676539E-2</v>
       </c>
       <c r="C23">
         <v>18.3</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>687</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>0.62077000000000004</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>0.752</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>0.23724980820131528</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="4">
+        <v>346552.4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-458.89449999999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.6173869999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>-2.1171060000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1.94020770968816E-2</v>
       </c>
       <c r="C24">
         <v>16.7</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>714.9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>0.59560000000000002</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>0.75800000000000001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>0.21297584966993335</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="5">
+        <v>509212.9</v>
+      </c>
+      <c r="I24" s="5">
+        <v>-469.923</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1.9847300000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <v>-1.82E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.6251312440123102E-2</v>
       </c>
       <c r="C25">
         <v>15.3</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>732</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>0.61539999999999995</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>0.87849999999999995</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>0.23413778983635472</v>
+      </c>
+      <c r="H25" s="4">
+        <v>760219.1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-3914.7179999999998</v>
+      </c>
+      <c r="J25" s="4">
+        <v>12.056749999999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>-1.0011290000000001E-2</v>
       </c>
     </row>
   </sheetData>
